--- a/example_output/LEAGUE B.xlsx
+++ b/example_output/LEAGUE B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="153">
   <si>
     <t>Date</t>
   </si>
@@ -67,7 +67,7 @@
     <t>2021-10-26</t>
   </si>
   <si>
-    <t>2021-10-29</t>
+    <t>2021-10-27</t>
   </si>
   <si>
     <t>2021-10-31</t>
@@ -91,6 +91,9 @@
     <t>2021-11-11</t>
   </si>
   <si>
+    <t>2021-11-12</t>
+  </si>
+  <si>
     <t>2021-11-14</t>
   </si>
   <si>
@@ -130,6 +133,9 @@
     <t>2021-12-09</t>
   </si>
   <si>
+    <t>2021-12-10</t>
+  </si>
+  <si>
     <t>2021-12-12</t>
   </si>
   <si>
@@ -262,6 +268,9 @@
     <t>2022-03-31</t>
   </si>
   <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
     <t>2022-04-03</t>
   </si>
   <si>
@@ -310,6 +319,9 @@
     <t>2022-05-10</t>
   </si>
   <si>
+    <t>2022-05-11</t>
+  </si>
+  <si>
     <t>2022-05-12</t>
   </si>
   <si>
@@ -361,9 +373,6 @@
     <t>2022-06-21</t>
   </si>
   <si>
-    <t>2022-06-22</t>
-  </si>
-  <si>
     <t>2022-06-23</t>
   </si>
   <si>
@@ -418,12 +427,12 @@
     <t>Soldier Field</t>
   </si>
   <si>
+    <t>MetLife Stadium</t>
+  </si>
+  <si>
     <t>Estadio Monumental</t>
   </si>
   <si>
-    <t>MetLife Stadium</t>
-  </si>
-  <si>
     <t>Dodger Stadium</t>
   </si>
   <si>
@@ -457,10 +466,10 @@
     <t>Scorpions</t>
   </si>
   <si>
+    <t>Rhinos</t>
+  </si>
+  <si>
     <t>Cheetahs</t>
-  </si>
-  <si>
-    <t>Rhinos</t>
   </si>
   <si>
     <t>Tigers</t>
@@ -849,16 +858,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -866,16 +875,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -883,16 +892,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -900,16 +909,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -917,16 +926,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -934,16 +943,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -951,16 +960,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -968,16 +977,16 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -985,16 +994,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1002,16 +1011,16 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1019,16 +1028,16 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1036,16 +1045,16 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1053,16 +1062,16 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1070,16 +1079,16 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1087,16 +1096,16 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1104,16 +1113,16 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1121,47 +1130,47 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20" t="s">
         <v>149</v>
@@ -1169,19 +1178,19 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1189,84 +1198,84 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E22" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E24" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1274,16 +1283,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1291,50 +1300,50 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E28" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E29" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1342,16 +1351,16 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D31" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1359,16 +1368,16 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1376,16 +1385,16 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1393,50 +1402,50 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="E35" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1444,33 +1453,33 @@
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D38" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E38" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1478,13 +1487,13 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E39" t="s">
         <v>145</v>
@@ -1495,16 +1504,16 @@
         <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1512,30 +1521,30 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D41" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E42" t="s">
         <v>143</v>
@@ -1546,33 +1555,33 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E44" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1580,16 +1589,16 @@
         <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1597,16 +1606,16 @@
         <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D46" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1614,7 +1623,7 @@
         <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
         <v>127</v>
@@ -1623,7 +1632,7 @@
         <v>140</v>
       </c>
       <c r="E47" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1631,16 +1640,16 @@
         <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1648,84 +1657,84 @@
         <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E49" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E53" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1733,50 +1742,50 @@
         <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C54" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E54" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D56" t="s">
+        <v>142</v>
+      </c>
+      <c r="E56" t="s">
         <v>140</v>
-      </c>
-      <c r="E56" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1784,16 +1793,16 @@
         <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E57" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1801,16 +1810,16 @@
         <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D58" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E58" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1818,398 +1827,398 @@
         <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D59" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E59" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D60" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E60" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C61" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D61" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E61" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D62" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E62" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D63" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D64" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E64" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C65" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D65" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E65" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D66" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E66" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B67" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C67" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D67" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E67" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E68" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B69" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C69" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D69" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E69" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B70" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C70" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D70" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E70" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C71" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D71" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D72" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E72" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s">
         <v>122</v>
       </c>
       <c r="C73" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D73" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B74" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C74" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D74" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E74" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B75" t="s">
         <v>122</v>
       </c>
       <c r="C75" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D75" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E75" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C76" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D76" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B77" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C77" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D77" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C78" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D78" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B79" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C79" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D79" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E79" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B80" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C80" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D80" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B81" t="s">
         <v>122</v>
       </c>
       <c r="C81" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D81" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E81" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B82" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C82" t="s">
         <v>136</v>
@@ -2218,106 +2227,106 @@
         <v>149</v>
       </c>
       <c r="E82" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B83" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C83" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D83" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E83" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C84" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D84" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E84" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C85" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D85" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E85" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B86" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C86" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D86" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E86" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B87" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D87" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E87" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B88" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C88" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D88" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E88" t="s">
         <v>142</v>
@@ -2325,27 +2334,27 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B89" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C89" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D89" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E89" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B90" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C90" t="s">
         <v>136</v>
@@ -2354,55 +2363,55 @@
         <v>149</v>
       </c>
       <c r="E90" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B91" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C91" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D91" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E91" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B92" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C92" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D92" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E92" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B93" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D93" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E93" t="s">
         <v>142</v>
@@ -2410,10 +2419,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B94" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C94" t="s">
         <v>131</v>
@@ -2422,15 +2431,15 @@
         <v>144</v>
       </c>
       <c r="E94" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B95" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C95" t="s">
         <v>134</v>
@@ -2439,287 +2448,287 @@
         <v>147</v>
       </c>
       <c r="E95" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B96" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C96" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D96" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E96" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B97" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C97" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E97" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B98" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C98" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D98" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B99" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C99" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E99" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B100" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C100" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D100" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E100" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B101" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C101" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D101" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E101" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B102" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C102" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D102" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E102" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B103" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C103" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D103" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E103" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B104" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C104" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D104" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E104" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B105" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C105" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D105" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E105" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B106" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C106" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D106" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E106" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B107" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C107" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D107" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E107" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B108" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C108" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D108" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E108" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B109" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C109" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D109" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E109" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C110" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D110" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E110" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B111" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C111" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D111" t="s">
+        <v>142</v>
+      </c>
+      <c r="E111" t="s">
         <v>144</v>
-      </c>
-      <c r="E111" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B112" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C112" t="s">
         <v>134</v>
@@ -2733,146 +2742,146 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B113" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C113" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D113" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E113" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B114" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C114" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D114" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E114" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B115" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C115" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D115" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E115" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C116" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D116" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E116" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C117" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D117" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E117" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B118" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D118" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E118" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C119" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D119" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E119" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C120" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D120" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E120" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C121" t="s">
         <v>134</v>
@@ -2881,236 +2890,236 @@
         <v>147</v>
       </c>
       <c r="E121" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B122" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D122" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E122" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B123" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D123" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E123" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D124" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E124" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B125" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D125" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E125" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B126" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D126" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E126" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B127" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C127" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D127" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E127" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B128" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C128" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D128" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E128" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B129" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C129" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D129" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E129" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B130" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C130" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D130" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E130" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B131" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C131" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D131" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E131" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B132" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C132" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D132" t="s">
+        <v>150</v>
+      </c>
+      <c r="E132" t="s">
         <v>141</v>
-      </c>
-      <c r="E132" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B133" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C133" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D133" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E133" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B134" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C134" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D134" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E134" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B135" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C135" t="s">
         <v>127</v>
@@ -3119,381 +3128,381 @@
         <v>140</v>
       </c>
       <c r="E135" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B136" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C136" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D136" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E136" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B137" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C137" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D137" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E137" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B138" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C138" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D138" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E138" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B139" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C139" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D139" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E139" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B140" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C140" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D140" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E140" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B141" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C141" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D141" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E141" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B142" t="s">
         <v>122</v>
       </c>
       <c r="C142" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E142" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B143" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C143" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D143" t="s">
+        <v>151</v>
+      </c>
+      <c r="E143" t="s">
         <v>147</v>
-      </c>
-      <c r="E143" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B144" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C144" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D144" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B145" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C145" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D145" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E145" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B146" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C146" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D146" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B147" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C147" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D147" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E147" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B148" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C148" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D148" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E148" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B149" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C149" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D149" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E149" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B150" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C150" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D150" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E150" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B151" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C151" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D151" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E151" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B152" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C152" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D152" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E152" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B153" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C153" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D153" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E153" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B154" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C154" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D154" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E154" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B155" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C155" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D155" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E155" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B156" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C156" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D156" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E156" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B157" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C157" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D157" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E157" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/example_output/LEAGUE B.xlsx
+++ b/example_output/LEAGUE B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="154">
   <si>
     <t>Date</t>
   </si>
@@ -46,7 +46,7 @@
     <t>2021-10-12</t>
   </si>
   <si>
-    <t>2021-10-14</t>
+    <t>2021-10-13</t>
   </si>
   <si>
     <t>2021-10-15</t>
@@ -70,15 +70,18 @@
     <t>2021-10-27</t>
   </si>
   <si>
+    <t>2021-10-28</t>
+  </si>
+  <si>
+    <t>2021-10-29</t>
+  </si>
+  <si>
     <t>2021-10-31</t>
   </si>
   <si>
     <t>2021-11-01</t>
   </si>
   <si>
-    <t>2021-11-03</t>
-  </si>
-  <si>
     <t>2021-11-07</t>
   </si>
   <si>
@@ -94,9 +97,6 @@
     <t>2021-11-12</t>
   </si>
   <si>
-    <t>2021-11-14</t>
-  </si>
-  <si>
     <t>2021-11-15</t>
   </si>
   <si>
@@ -109,18 +109,15 @@
     <t>2021-11-23</t>
   </si>
   <si>
+    <t>2021-11-24</t>
+  </si>
+  <si>
     <t>2021-11-25</t>
   </si>
   <si>
-    <t>2021-11-26</t>
-  </si>
-  <si>
     <t>2021-11-28</t>
   </si>
   <si>
-    <t>2021-11-29</t>
-  </si>
-  <si>
     <t>2021-12-04</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t>2021-12-10</t>
   </si>
   <si>
-    <t>2021-12-12</t>
-  </si>
-  <si>
     <t>2021-12-13</t>
   </si>
   <si>
@@ -151,7 +145,10 @@
     <t>2021-12-21</t>
   </si>
   <si>
-    <t>2021-12-23</t>
+    <t>2021-12-22</t>
+  </si>
+  <si>
+    <t>2021-12-24</t>
   </si>
   <si>
     <t>2021-12-26</t>
@@ -160,9 +157,6 @@
     <t>2021-12-27</t>
   </si>
   <si>
-    <t>2021-12-29</t>
-  </si>
-  <si>
     <t>2022-01-01</t>
   </si>
   <si>
@@ -175,19 +169,19 @@
     <t>2022-01-09</t>
   </si>
   <si>
+    <t>2022-01-10</t>
+  </si>
+  <si>
     <t>2022-01-12</t>
   </si>
   <si>
-    <t>2022-01-16</t>
-  </si>
-  <si>
     <t>2022-01-18</t>
   </si>
   <si>
     <t>2022-01-19</t>
   </si>
   <si>
-    <t>2022-01-21</t>
+    <t>2022-01-20</t>
   </si>
   <si>
     <t>2022-02-01</t>
@@ -202,9 +196,6 @@
     <t>2022-02-06</t>
   </si>
   <si>
-    <t>2022-02-07</t>
-  </si>
-  <si>
     <t>2022-02-12</t>
   </si>
   <si>
@@ -214,6 +205,9 @@
     <t>2022-02-16</t>
   </si>
   <si>
+    <t>2022-02-20</t>
+  </si>
+  <si>
     <t>2022-02-21</t>
   </si>
   <si>
@@ -235,6 +229,9 @@
     <t>2022-03-04</t>
   </si>
   <si>
+    <t>2022-03-07</t>
+  </si>
+  <si>
     <t>2022-03-09</t>
   </si>
   <si>
@@ -244,12 +241,12 @@
     <t>2022-03-15</t>
   </si>
   <si>
-    <t>2022-03-16</t>
-  </si>
-  <si>
     <t>2022-03-17</t>
   </si>
   <si>
+    <t>2022-03-18</t>
+  </si>
+  <si>
     <t>2022-03-20</t>
   </si>
   <si>
@@ -262,18 +259,15 @@
     <t>2022-03-29</t>
   </si>
   <si>
-    <t>2022-03-30</t>
-  </si>
-  <si>
     <t>2022-03-31</t>
   </si>
   <si>
-    <t>2022-04-01</t>
-  </si>
-  <si>
     <t>2022-04-03</t>
   </si>
   <si>
+    <t>2022-04-04</t>
+  </si>
+  <si>
     <t>2022-04-06</t>
   </si>
   <si>
@@ -286,12 +280,15 @@
     <t>2022-04-13</t>
   </si>
   <si>
-    <t>2022-04-14</t>
-  </si>
-  <si>
     <t>2022-04-15</t>
   </si>
   <si>
+    <t>2022-04-17</t>
+  </si>
+  <si>
+    <t>2022-04-18</t>
+  </si>
+  <si>
     <t>2022-04-20</t>
   </si>
   <si>
@@ -313,22 +310,28 @@
     <t>2022-05-01</t>
   </si>
   <si>
+    <t>2022-05-04</t>
+  </si>
+  <si>
     <t>2022-05-07</t>
   </si>
   <si>
+    <t>2022-05-08</t>
+  </si>
+  <si>
     <t>2022-05-10</t>
   </si>
   <si>
-    <t>2022-05-11</t>
-  </si>
-  <si>
     <t>2022-05-12</t>
   </si>
   <si>
     <t>2022-05-13</t>
   </si>
   <si>
-    <t>2022-05-16</t>
+    <t>2022-05-15</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
   </si>
   <si>
     <t>2022-05-22</t>
@@ -346,10 +349,10 @@
     <t>2022-05-27</t>
   </si>
   <si>
-    <t>2022-05-28</t>
-  </si>
-  <si>
-    <t>2022-05-30</t>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>2022-06-04</t>
   </si>
   <si>
     <t>2022-06-05</t>
@@ -358,22 +361,25 @@
     <t>2022-06-07</t>
   </si>
   <si>
-    <t>2022-06-08</t>
-  </si>
-  <si>
     <t>2022-06-10</t>
   </si>
   <si>
+    <t>2022-06-12</t>
+  </si>
+  <si>
     <t>2022-06-13</t>
   </si>
   <si>
+    <t>2022-06-15</t>
+  </si>
+  <si>
     <t>2022-06-17</t>
   </si>
   <si>
     <t>2022-06-21</t>
   </si>
   <si>
-    <t>2022-06-23</t>
+    <t>2022-06-22</t>
   </si>
   <si>
     <t>2022-06-24</t>
@@ -385,27 +391,24 @@
     <t>19u</t>
   </si>
   <si>
+    <t>18u</t>
+  </si>
+  <si>
     <t>22u</t>
   </si>
   <si>
-    <t>18u</t>
-  </si>
-  <si>
     <t>20u</t>
   </si>
   <si>
-    <t>17u</t>
-  </si>
-  <si>
     <t>Gillette Stadium</t>
   </si>
   <si>
+    <t>Arrowhead Stadium</t>
+  </si>
+  <si>
     <t>Signal Iduna Park</t>
   </si>
   <si>
-    <t>Arrowhead Stadium</t>
-  </si>
-  <si>
     <t>Estadio Azteca</t>
   </si>
   <si>
@@ -415,21 +418,21 @@
     <t>Etihad Stadium</t>
   </si>
   <si>
+    <t>MetLife Stadium</t>
+  </si>
+  <si>
+    <t>Maracana Stadium</t>
+  </si>
+  <si>
+    <t>Lambeau Field</t>
+  </si>
+  <si>
+    <t>Soldier Field</t>
+  </si>
+  <si>
     <t>FedExField</t>
   </si>
   <si>
-    <t>Maracana Stadium</t>
-  </si>
-  <si>
-    <t>Lambeau Field</t>
-  </si>
-  <si>
-    <t>Soldier Field</t>
-  </si>
-  <si>
-    <t>MetLife Stadium</t>
-  </si>
-  <si>
     <t>Estadio Monumental</t>
   </si>
   <si>
@@ -439,12 +442,12 @@
     <t>Jaguars</t>
   </si>
   <si>
+    <t>Pumas</t>
+  </si>
+  <si>
     <t>Leopards</t>
   </si>
   <si>
-    <t>Pumas</t>
-  </si>
-  <si>
     <t>Grizzlies</t>
   </si>
   <si>
@@ -454,19 +457,19 @@
     <t>Hawks</t>
   </si>
   <si>
+    <t>Rhinos</t>
+  </si>
+  <si>
+    <t>Buffalos</t>
+  </si>
+  <si>
+    <t>Panthers</t>
+  </si>
+  <si>
+    <t>Scorpions</t>
+  </si>
+  <si>
     <t>Pythons</t>
-  </si>
-  <si>
-    <t>Buffalos</t>
-  </si>
-  <si>
-    <t>Panthers</t>
-  </si>
-  <si>
-    <t>Scorpions</t>
-  </si>
-  <si>
-    <t>Rhinos</t>
   </si>
   <si>
     <t>Cheetahs</t>
@@ -858,16 +861,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -875,16 +878,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -892,16 +895,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -909,16 +912,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -926,16 +929,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -943,16 +946,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -960,16 +963,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -977,16 +980,16 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -994,7 +997,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
         <v>129</v>
@@ -1003,7 +1006,7 @@
         <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1011,16 +1014,16 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1028,16 +1031,16 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1045,16 +1048,16 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1062,13 +1065,13 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
         <v>152</v>
@@ -1079,16 +1082,16 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1096,16 +1099,16 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1113,13 +1116,13 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s">
         <v>146</v>
@@ -1127,10 +1130,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
         <v>128</v>
@@ -1139,38 +1142,38 @@
         <v>141</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E20" t="s">
         <v>149</v>
@@ -1178,70 +1181,70 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E22" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1249,16 +1252,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E25" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1266,16 +1269,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E26" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1283,16 +1286,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1300,7 +1303,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
         <v>128</v>
@@ -1309,58 +1312,58 @@
         <v>141</v>
       </c>
       <c r="E28" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1368,143 +1371,143 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E32" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E33" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E35" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
         <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E36" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E38" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
         <v>130</v>
@@ -1513,24 +1516,24 @@
         <v>143</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E41" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1538,143 +1541,143 @@
         <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E42" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E43" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D45" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E46" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D47" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E47" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E49" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
         <v>134</v>
@@ -1683,72 +1686,72 @@
         <v>147</v>
       </c>
       <c r="E50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D52" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D53" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E53" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D54" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E54" t="s">
         <v>144</v>
@@ -1756,16 +1759,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D55" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E55" t="s">
         <v>143</v>
@@ -1773,197 +1776,197 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E56" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D57" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E57" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D58" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E59" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" t="s">
         <v>151</v>
-      </c>
-      <c r="E60" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E61" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D62" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" t="s">
         <v>149</v>
-      </c>
-      <c r="E62" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C63" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E63" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D64" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" t="s">
         <v>144</v>
-      </c>
-      <c r="E64" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D65" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C66" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D66" t="s">
+        <v>150</v>
+      </c>
+      <c r="E66" t="s">
         <v>141</v>
-      </c>
-      <c r="E66" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C67" t="s">
         <v>134</v>
@@ -1972,250 +1975,250 @@
         <v>147</v>
       </c>
       <c r="E67" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C68" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D68" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E68" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D69" t="s">
+        <v>145</v>
+      </c>
+      <c r="E69" t="s">
         <v>149</v>
-      </c>
-      <c r="E69" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B70" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D70" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E70" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B71" t="s">
         <v>125</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D71" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E71" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C72" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E72" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B73" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C73" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D73" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C74" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D74" t="s">
+        <v>150</v>
+      </c>
+      <c r="E74" t="s">
         <v>149</v>
-      </c>
-      <c r="E74" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B75" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D75" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C76" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D76" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E76" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C77" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D77" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E77" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B78" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C78" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D78" t="s">
+        <v>142</v>
+      </c>
+      <c r="E78" t="s">
         <v>141</v>
-      </c>
-      <c r="E78" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B79" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C79" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D79" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B80" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C80" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D80" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E80" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B81" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C81" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D81" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E81" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B82" t="s">
         <v>125</v>
@@ -2227,38 +2230,38 @@
         <v>149</v>
       </c>
       <c r="E82" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B83" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C83" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D83" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E83" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B84" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C84" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D84" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E84" t="s">
         <v>142</v>
@@ -2266,16 +2269,16 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B85" t="s">
         <v>125</v>
       </c>
       <c r="C85" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D85" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E85" t="s">
         <v>148</v>
@@ -2283,265 +2286,265 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B86" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C86" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D86" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E86" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C87" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D87" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E87" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C88" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D88" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E88" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B89" t="s">
         <v>124</v>
       </c>
       <c r="C89" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D89" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E89" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B90" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E90" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B91" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C91" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D91" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E91" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B92" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C92" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D92" t="s">
+        <v>146</v>
+      </c>
+      <c r="E92" t="s">
         <v>150</v>
-      </c>
-      <c r="E92" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B93" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E93" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B94" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C94" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D94" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E94" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B95" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C95" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D95" t="s">
+        <v>141</v>
+      </c>
+      <c r="E95" t="s">
         <v>147</v>
-      </c>
-      <c r="E95" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B96" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C96" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D96" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E96" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B97" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C97" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D97" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E97" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B98" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E98" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B99" t="s">
         <v>125</v>
       </c>
       <c r="C99" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D99" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E99" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B100" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C100" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D100" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E100" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B101" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C101" t="s">
         <v>137</v>
@@ -2550,55 +2553,55 @@
         <v>150</v>
       </c>
       <c r="E101" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B102" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C102" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D102" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E102" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B103" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C103" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D103" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E103" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B104" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C104" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D104" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E104" t="s">
         <v>146</v>
@@ -2606,197 +2609,197 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B105" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C105" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D105" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E105" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B106" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C106" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D106" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E106" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B107" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C107" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D107" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E107" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B108" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C108" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D108" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E108" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B109" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C109" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D109" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E109" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B110" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C110" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D110" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E110" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B111" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C111" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D111" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E111" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B112" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C112" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D112" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E112" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C113" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D113" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E113" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B114" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C114" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D114" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E114" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B115" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D115" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E115" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B116" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C116" t="s">
         <v>139</v>
@@ -2810,16 +2813,16 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B117" t="s">
         <v>125</v>
       </c>
       <c r="C117" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D117" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E117" t="s">
         <v>143</v>
@@ -2827,10 +2830,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B118" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C118" t="s">
         <v>137</v>
@@ -2839,83 +2842,83 @@
         <v>150</v>
       </c>
       <c r="E118" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C119" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D119" t="s">
+        <v>147</v>
+      </c>
+      <c r="E119" t="s">
         <v>146</v>
-      </c>
-      <c r="E119" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B120" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C120" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D120" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E120" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D121" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E121" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D122" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C123" t="s">
         <v>135</v>
@@ -2924,72 +2927,72 @@
         <v>148</v>
       </c>
       <c r="E123" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D124" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E124" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B125" t="s">
         <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D125" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E125" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D126" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E126" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B127" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D127" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E127" t="s">
         <v>143</v>
@@ -2997,27 +3000,27 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B128" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C128" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D128" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E128" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B129" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C129" t="s">
         <v>138</v>
@@ -3026,140 +3029,140 @@
         <v>151</v>
       </c>
       <c r="E129" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B130" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C130" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D130" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E130" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B131" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C131" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D131" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E131" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B132" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C132" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D132" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E132" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B133" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C133" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D133" t="s">
+        <v>148</v>
+      </c>
+      <c r="E133" t="s">
         <v>144</v>
-      </c>
-      <c r="E133" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B134" t="s">
         <v>125</v>
       </c>
       <c r="C134" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D134" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E134" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B135" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C135" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D135" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E135" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B136" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C136" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D136" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E136" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B137" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C137" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D137" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E137" t="s">
         <v>141</v>
@@ -3167,220 +3170,220 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B138" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C138" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D138" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E138" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B139" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C139" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D139" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E139" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B140" t="s">
         <v>125</v>
       </c>
       <c r="C140" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D140" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E140" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B141" t="s">
         <v>125</v>
       </c>
       <c r="C141" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D141" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E141" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B142" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C142" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D142" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E142" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B143" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C143" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D143" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E143" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B144" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C144" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D144" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E144" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B145" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C145" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D145" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E145" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B146" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C146" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D146" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E146" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B147" t="s">
         <v>125</v>
       </c>
       <c r="C147" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D147" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B148" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C148" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D148" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E148" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B149" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C149" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D149" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B150" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C150" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D150" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E150" t="s">
         <v>147</v>
@@ -3388,121 +3391,121 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B151" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C151" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D151" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E151" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B152" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C152" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D152" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E152" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B153" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C153" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D153" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E153" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B154" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C154" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D154" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E154" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B155" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C155" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D155" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E155" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B156" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C156" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D156" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E156" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B157" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C157" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D157" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E157" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/example_output/LEAGUE B.xlsx
+++ b/example_output/LEAGUE B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="153">
   <si>
     <t>Date</t>
   </si>
@@ -46,7 +46,7 @@
     <t>2021-10-12</t>
   </si>
   <si>
-    <t>2021-10-14</t>
+    <t>2021-10-15</t>
   </si>
   <si>
     <t>2021-10-17</t>
@@ -106,15 +106,18 @@
     <t>2021-11-23</t>
   </si>
   <si>
-    <t>2021-11-24</t>
-  </si>
-  <si>
     <t>2021-11-25</t>
   </si>
   <si>
+    <t>2021-11-26</t>
+  </si>
+  <si>
     <t>2021-11-28</t>
   </si>
   <si>
+    <t>2021-11-29</t>
+  </si>
+  <si>
     <t>2021-12-04</t>
   </si>
   <si>
@@ -142,6 +145,9 @@
     <t>2021-12-21</t>
   </si>
   <si>
+    <t>2021-12-22</t>
+  </si>
+  <si>
     <t>2021-12-23</t>
   </si>
   <si>
@@ -151,9 +157,6 @@
     <t>2021-12-26</t>
   </si>
   <si>
-    <t>2021-12-27</t>
-  </si>
-  <si>
     <t>2021-12-29</t>
   </si>
   <si>
@@ -163,15 +166,21 @@
     <t>2022-01-04</t>
   </si>
   <si>
+    <t>2022-01-05</t>
+  </si>
+  <si>
     <t>2022-01-07</t>
   </si>
   <si>
-    <t>2022-01-09</t>
-  </si>
-  <si>
     <t>2022-01-10</t>
   </si>
   <si>
+    <t>2022-01-12</t>
+  </si>
+  <si>
+    <t>2022-01-16</t>
+  </si>
+  <si>
     <t>2022-01-18</t>
   </si>
   <si>
@@ -181,9 +190,6 @@
     <t>2022-01-20</t>
   </si>
   <si>
-    <t>2022-01-21</t>
-  </si>
-  <si>
     <t>2022-02-01</t>
   </si>
   <si>
@@ -193,6 +199,9 @@
     <t>2022-02-03</t>
   </si>
   <si>
+    <t>2022-02-06</t>
+  </si>
+  <si>
     <t>2022-02-07</t>
   </si>
   <si>
@@ -208,9 +217,6 @@
     <t>2022-02-20</t>
   </si>
   <si>
-    <t>2022-02-21</t>
-  </si>
-  <si>
     <t>2022-02-23</t>
   </si>
   <si>
@@ -220,15 +226,15 @@
     <t>2022-03-01</t>
   </si>
   <si>
+    <t>2022-03-02</t>
+  </si>
+  <si>
     <t>2022-03-03</t>
   </si>
   <si>
     <t>2022-03-04</t>
   </si>
   <si>
-    <t>2022-03-07</t>
-  </si>
-  <si>
     <t>2022-03-09</t>
   </si>
   <si>
@@ -241,15 +247,15 @@
     <t>2022-03-17</t>
   </si>
   <si>
-    <t>2022-03-18</t>
-  </si>
-  <si>
     <t>2022-03-20</t>
   </si>
   <si>
     <t>2022-03-21</t>
   </si>
   <si>
+    <t>2022-03-23</t>
+  </si>
+  <si>
     <t>2022-03-27</t>
   </si>
   <si>
@@ -259,7 +265,10 @@
     <t>2022-03-30</t>
   </si>
   <si>
-    <t>2022-03-31</t>
+    <t>2022-04-03</t>
+  </si>
+  <si>
+    <t>2022-04-04</t>
   </si>
   <si>
     <t>2022-04-06</t>
@@ -271,7 +280,7 @@
     <t>2022-04-12</t>
   </si>
   <si>
-    <t>2022-04-13</t>
+    <t>2022-04-14</t>
   </si>
   <si>
     <t>2022-04-15</t>
@@ -301,27 +310,18 @@
     <t>2022-05-01</t>
   </si>
   <si>
-    <t>2022-05-04</t>
-  </si>
-  <si>
     <t>2022-05-08</t>
   </si>
   <si>
     <t>2022-05-10</t>
   </si>
   <si>
+    <t>2022-05-11</t>
+  </si>
+  <si>
     <t>2022-05-12</t>
   </si>
   <si>
-    <t>2022-05-13</t>
-  </si>
-  <si>
-    <t>2022-05-15</t>
-  </si>
-  <si>
-    <t>2022-05-18</t>
-  </si>
-  <si>
     <t>2022-05-22</t>
   </si>
   <si>
@@ -334,15 +334,15 @@
     <t>2022-05-26</t>
   </si>
   <si>
-    <t>2022-05-28</t>
-  </si>
-  <si>
     <t>2022-05-29</t>
   </si>
   <si>
     <t>2022-05-30</t>
   </si>
   <si>
+    <t>2022-06-04</t>
+  </si>
+  <si>
     <t>2022-06-05</t>
   </si>
   <si>
@@ -358,6 +358,9 @@
     <t>2022-06-10</t>
   </si>
   <si>
+    <t>2022-06-13</t>
+  </si>
+  <si>
     <t>2022-06-15</t>
   </si>
   <si>
@@ -370,9 +373,6 @@
     <t>2022-06-21</t>
   </si>
   <si>
-    <t>2022-06-22</t>
-  </si>
-  <si>
     <t>2022-06-23</t>
   </si>
   <si>
@@ -388,51 +388,48 @@
     <t>19u</t>
   </si>
   <si>
+    <t>18u</t>
+  </si>
+  <si>
     <t>22u</t>
   </si>
   <si>
-    <t>18u</t>
-  </si>
-  <si>
     <t>20u</t>
   </si>
   <si>
-    <t>17u</t>
-  </si>
-  <si>
     <t>Gillette Stadium</t>
   </si>
   <si>
+    <t>Arrowhead Stadium</t>
+  </si>
+  <si>
     <t>Signal Iduna Park</t>
   </si>
   <si>
-    <t>Arrowhead Stadium</t>
-  </si>
-  <si>
     <t>Estadio Azteca</t>
   </si>
   <si>
     <t>United Center</t>
   </si>
   <si>
+    <t>Etihad Stadium</t>
+  </si>
+  <si>
     <t>Soldier Field</t>
   </si>
   <si>
-    <t>Etihad Stadium</t>
+    <t>Maracana Stadium</t>
+  </si>
+  <si>
+    <t>Lambeau Field</t>
+  </si>
+  <si>
+    <t>MetLife Stadium</t>
   </si>
   <si>
     <t>FedExField</t>
   </si>
   <si>
-    <t>Maracana Stadium</t>
-  </si>
-  <si>
-    <t>Lambeau Field</t>
-  </si>
-  <si>
-    <t>MetLife Stadium</t>
-  </si>
-  <si>
     <t>Estadio Monumental</t>
   </si>
   <si>
@@ -442,34 +439,34 @@
     <t>Jaguars</t>
   </si>
   <si>
+    <t>Pumas</t>
+  </si>
+  <si>
     <t>Leopards</t>
   </si>
   <si>
-    <t>Pumas</t>
-  </si>
-  <si>
     <t>Grizzlies</t>
   </si>
   <si>
     <t>Bulls</t>
   </si>
   <si>
+    <t>Hawks</t>
+  </si>
+  <si>
     <t>Scorpions</t>
   </si>
   <si>
-    <t>Hawks</t>
+    <t>Buffalos</t>
+  </si>
+  <si>
+    <t>Panthers</t>
+  </si>
+  <si>
+    <t>Rhinos</t>
   </si>
   <si>
     <t>Pythons</t>
-  </si>
-  <si>
-    <t>Buffalos</t>
-  </si>
-  <si>
-    <t>Panthers</t>
-  </si>
-  <si>
-    <t>Rhinos</t>
   </si>
   <si>
     <t>Cheetahs</t>
@@ -864,13 +861,13 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -881,13 +878,13 @@
         <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -898,13 +895,13 @@
         <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -912,16 +909,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -932,13 +929,13 @@
         <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -949,13 +946,13 @@
         <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -966,13 +963,13 @@
         <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -980,16 +977,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -997,16 +994,16 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1014,16 +1011,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1031,16 +1028,16 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" t="s">
         <v>145</v>
-      </c>
-      <c r="E12" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1048,16 +1045,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" t="s">
         <v>149</v>
-      </c>
-      <c r="E13" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1065,16 +1062,16 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1091,7 +1088,7 @@
         <v>146</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1102,13 +1099,13 @@
         <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E16" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1119,13 +1116,13 @@
         <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1136,13 +1133,13 @@
         <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" t="s">
         <v>152</v>
-      </c>
-      <c r="E18" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1153,13 +1150,13 @@
         <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1167,16 +1164,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1184,16 +1181,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1201,7 +1198,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
         <v>129</v>
@@ -1221,13 +1218,13 @@
         <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1238,13 +1235,13 @@
         <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1255,13 +1252,13 @@
         <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E25" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1272,13 +1269,13 @@
         <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1289,13 +1286,13 @@
         <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1306,10 +1303,10 @@
         <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E28" t="s">
         <v>148</v>
@@ -1320,16 +1317,16 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" t="s">
         <v>144</v>
-      </c>
-      <c r="E29" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1337,16 +1334,16 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1354,33 +1351,33 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1388,13 +1385,13 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E33" t="s">
         <v>149</v>
@@ -1402,53 +1399,53 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
         <v>126</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E34" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" t="s">
         <v>148</v>
-      </c>
-      <c r="E36" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1456,7 +1453,7 @@
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
         <v>129</v>
@@ -1465,7 +1462,7 @@
         <v>142</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1473,132 +1470,132 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
         <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
         <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D41" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E42" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E43" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
         <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
         <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E45" t="s">
         <v>152</v>
@@ -1606,135 +1603,135 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E46" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E48" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E49" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E50" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E51" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
         <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D52" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E52" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D53" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E53" t="s">
         <v>147</v>
@@ -1742,78 +1739,78 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s">
         <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E55" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D56" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E56" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C57" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D57" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" t="s">
         <v>149</v>
-      </c>
-      <c r="E57" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C58" t="s">
         <v>139</v>
@@ -1822,131 +1819,131 @@
         <v>152</v>
       </c>
       <c r="E58" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
         <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E59" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C60" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D60" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E60" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D61" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E61" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E62" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D63" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E63" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B64" t="s">
         <v>125</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D64" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E64" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D65" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B66" t="s">
         <v>126</v>
@@ -1958,338 +1955,338 @@
         <v>146</v>
       </c>
       <c r="E66" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E67" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B68" t="s">
         <v>126</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D68" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B69" t="s">
         <v>126</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D69" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E69" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B70" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C70" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D70" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E70" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B71" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C71" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D71" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E71" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D72" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E72" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
         <v>126</v>
       </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D73" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E73" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B74" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C74" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D74" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E74" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C75" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C76" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D76" t="s">
+        <v>151</v>
+      </c>
+      <c r="E76" t="s">
         <v>144</v>
-      </c>
-      <c r="E76" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C77" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D77" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E77" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C78" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" t="s">
+        <v>145</v>
+      </c>
+      <c r="E78" t="s">
         <v>140</v>
-      </c>
-      <c r="D78" t="s">
-        <v>153</v>
-      </c>
-      <c r="E78" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C79" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D79" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E79" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B80" t="s">
         <v>126</v>
       </c>
       <c r="C80" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D80" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E80" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B81" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C81" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D81" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E81" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B82" t="s">
         <v>125</v>
       </c>
       <c r="C82" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D82" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E82" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B83" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C83" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D83" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E83" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B84" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C84" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D84" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E84" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B85" t="s">
         <v>124</v>
       </c>
       <c r="C85" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E85" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B86" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C86" t="s">
         <v>139</v>
@@ -2303,84 +2300,84 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B87" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C87" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B88" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D88" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E88" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C89" t="s">
+        <v>127</v>
+      </c>
+      <c r="D89" t="s">
         <v>140</v>
       </c>
-      <c r="D89" t="s">
-        <v>153</v>
-      </c>
       <c r="E89" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B90" t="s">
         <v>125</v>
       </c>
       <c r="C90" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D90" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E90" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B91" t="s">
         <v>123</v>
       </c>
       <c r="C91" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D91" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E91" t="s">
         <v>143</v>
@@ -2388,44 +2385,44 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B92" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C92" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D92" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B93" t="s">
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D93" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B94" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C94" t="s">
         <v>139</v>
@@ -2434,21 +2431,21 @@
         <v>152</v>
       </c>
       <c r="E94" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B95" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C95" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D95" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E95" t="s">
         <v>141</v>
@@ -2456,10 +2453,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B96" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C96" t="s">
         <v>137</v>
@@ -2468,191 +2465,191 @@
         <v>150</v>
       </c>
       <c r="E96" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B97" t="s">
         <v>126</v>
       </c>
       <c r="C97" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D97" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E97" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B98" t="s">
         <v>124</v>
       </c>
       <c r="C98" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D98" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E98" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B99" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C99" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D99" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E99" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B100" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C100" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D100" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E100" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B101" t="s">
         <v>125</v>
       </c>
       <c r="C101" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D101" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E101" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B102" t="s">
         <v>124</v>
       </c>
       <c r="C102" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D102" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E102" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B103" t="s">
         <v>125</v>
       </c>
       <c r="C103" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D103" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E103" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B104" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C104" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D104" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E104" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C105" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D105" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E105" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B106" t="s">
         <v>126</v>
       </c>
       <c r="C106" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D106" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E106" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B107" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C107" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D107" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E107" t="s">
         <v>148</v>
@@ -2660,101 +2657,101 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B108" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C108" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D108" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E108" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B109" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C109" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D109" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E109" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B110" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C110" t="s">
+        <v>134</v>
+      </c>
+      <c r="D110" t="s">
+        <v>147</v>
+      </c>
+      <c r="E110" t="s">
         <v>140</v>
-      </c>
-      <c r="D110" t="s">
-        <v>153</v>
-      </c>
-      <c r="E110" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B111" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C111" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D111" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E111" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B112" t="s">
         <v>126</v>
       </c>
       <c r="C112" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D112" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B113" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C113" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D113" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E113" t="s">
         <v>142</v>
@@ -2762,7 +2759,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B114" t="s">
         <v>126</v>
@@ -2774,55 +2771,55 @@
         <v>145</v>
       </c>
       <c r="E114" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B115" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C115" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D115" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E115" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B116" t="s">
         <v>123</v>
       </c>
       <c r="C116" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D116" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E116" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B117" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D117" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E117" t="s">
         <v>144</v>
@@ -2830,33 +2827,33 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B118" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C118" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D118" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E118" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B119" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C119" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D119" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E119" t="s">
         <v>142</v>
@@ -2864,143 +2861,143 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B120" t="s">
         <v>126</v>
       </c>
       <c r="C120" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D120" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E120" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C121" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D121" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C122" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D122" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E122" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D123" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E123" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D124" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E124" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D125" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E125" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B126" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D126" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E126" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C127" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D127" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E127" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B128" t="s">
         <v>126</v>
@@ -3012,55 +3009,55 @@
         <v>145</v>
       </c>
       <c r="E128" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B129" t="s">
         <v>126</v>
       </c>
       <c r="C129" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D129" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E129" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B130" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C130" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D130" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E130" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B131" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C131" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D131" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E131" t="s">
         <v>151</v>
@@ -3068,16 +3065,16 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B132" t="s">
         <v>124</v>
       </c>
       <c r="C132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D132" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E132" t="s">
         <v>143</v>
@@ -3085,19 +3082,19 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B133" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C133" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D133" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E133" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3105,16 +3102,16 @@
         <v>103</v>
       </c>
       <c r="B134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C134" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D134" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E134" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3131,72 +3128,72 @@
         <v>146</v>
       </c>
       <c r="E135" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B136" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C136" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D136" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E136" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B137" t="s">
         <v>126</v>
       </c>
       <c r="C137" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D137" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E137" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B138" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C138" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D138" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E138" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B139" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C139" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D139" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E139" t="s">
         <v>150</v>
@@ -3204,58 +3201,58 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B140" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C140" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D140" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E140" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B141" t="s">
         <v>124</v>
       </c>
       <c r="C141" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D141" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E141" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B142" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C142" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D142" t="s">
+        <v>144</v>
+      </c>
+      <c r="E142" t="s">
         <v>150</v>
-      </c>
-      <c r="E142" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B143" t="s">
         <v>126</v>
@@ -3267,7 +3264,7 @@
         <v>145</v>
       </c>
       <c r="E143" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3284,177 +3281,177 @@
         <v>146</v>
       </c>
       <c r="E144" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B145" t="s">
         <v>126</v>
       </c>
       <c r="C145" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D145" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E145" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B146" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C146" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D146" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E146" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B147" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C147" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D147" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E147" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B148" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C148" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D148" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B149" t="s">
         <v>126</v>
       </c>
       <c r="C149" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D149" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E149" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B150" t="s">
         <v>126</v>
       </c>
       <c r="C150" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D150" t="s">
+        <v>144</v>
+      </c>
+      <c r="E150" t="s">
         <v>152</v>
-      </c>
-      <c r="E150" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B151" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C151" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D151" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E151" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B152" t="s">
         <v>126</v>
       </c>
       <c r="C152" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D152" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E152" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B153" t="s">
         <v>126</v>
       </c>
       <c r="C153" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D153" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E153" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B154" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C154" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D154" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E154" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3462,16 +3459,16 @@
         <v>120</v>
       </c>
       <c r="B155" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C155" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D155" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E155" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3479,16 +3476,16 @@
         <v>121</v>
       </c>
       <c r="B156" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C156" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D156" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E156" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3496,13 +3493,13 @@
         <v>122</v>
       </c>
       <c r="B157" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C157" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D157" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E157" t="s">
         <v>152</v>

--- a/example_output/LEAGUE B.xlsx
+++ b/example_output/LEAGUE B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="152">
   <si>
     <t>Date</t>
   </si>
@@ -172,15 +172,15 @@
     <t>2022-01-07</t>
   </si>
   <si>
+    <t>2022-01-09</t>
+  </si>
+  <si>
     <t>2022-01-10</t>
   </si>
   <si>
     <t>2022-01-12</t>
   </si>
   <si>
-    <t>2022-01-16</t>
-  </si>
-  <si>
     <t>2022-01-18</t>
   </si>
   <si>
@@ -214,6 +214,9 @@
     <t>2022-02-16</t>
   </si>
   <si>
+    <t>2022-02-18</t>
+  </si>
+  <si>
     <t>2022-02-20</t>
   </si>
   <si>
@@ -253,9 +256,6 @@
     <t>2022-03-21</t>
   </si>
   <si>
-    <t>2022-03-23</t>
-  </si>
-  <si>
     <t>2022-03-27</t>
   </si>
   <si>
@@ -316,12 +316,12 @@
     <t>2022-05-10</t>
   </si>
   <si>
-    <t>2022-05-11</t>
-  </si>
-  <si>
     <t>2022-05-12</t>
   </si>
   <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
     <t>2022-05-22</t>
   </si>
   <si>
@@ -353,9 +353,6 @@
   </si>
   <si>
     <t>2022-06-08</t>
-  </si>
-  <si>
-    <t>2022-06-10</t>
   </si>
   <si>
     <t>2022-06-13</t>
@@ -858,16 +855,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -875,16 +872,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -892,16 +889,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -909,16 +906,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -926,16 +923,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -943,16 +940,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -960,16 +957,16 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -977,16 +974,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -994,16 +991,16 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1011,16 +1008,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1028,16 +1025,16 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1045,16 +1042,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1062,13 +1059,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14" t="s">
         <v>151</v>
@@ -1079,16 +1076,16 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1096,16 +1093,16 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E16" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1113,16 +1110,16 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1133,13 +1130,13 @@
         <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" t="s">
         <v>151</v>
-      </c>
-      <c r="E18" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1147,16 +1144,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E19" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1164,16 +1161,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1181,16 +1178,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E21" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1198,33 +1195,33 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E22" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E23" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1232,67 +1229,67 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" t="s">
         <v>149</v>
-      </c>
-      <c r="E25" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E26" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" t="s">
         <v>142</v>
-      </c>
-      <c r="E27" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1300,16 +1297,16 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" t="s">
         <v>141</v>
-      </c>
-      <c r="E28" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1317,16 +1314,16 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" t="s">
         <v>143</v>
-      </c>
-      <c r="E29" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1334,16 +1331,16 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1354,30 +1351,30 @@
         <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E31" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" t="s">
         <v>145</v>
-      </c>
-      <c r="E32" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1388,61 +1385,61 @@
         <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E34" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
         <v>148</v>
@@ -1453,16 +1450,16 @@
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1470,16 +1467,16 @@
         <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E38" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1487,16 +1484,16 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1504,16 +1501,16 @@
         <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1521,16 +1518,16 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E41" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1541,10 +1538,10 @@
         <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E42" t="s">
         <v>148</v>
@@ -1555,16 +1552,16 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1572,16 +1569,16 @@
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1589,16 +1586,16 @@
         <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1606,16 +1603,16 @@
         <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E46" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1623,16 +1620,16 @@
         <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1640,16 +1637,16 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1657,16 +1654,16 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1674,16 +1671,16 @@
         <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1691,13 +1688,13 @@
         <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E51" t="s">
         <v>142</v>
@@ -1708,16 +1705,16 @@
         <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1725,16 +1722,16 @@
         <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1742,16 +1739,16 @@
         <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1759,16 +1756,16 @@
         <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C55" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E55" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1776,16 +1773,16 @@
         <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D56" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" t="s">
         <v>147</v>
-      </c>
-      <c r="E56" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1793,16 +1790,16 @@
         <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E57" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1810,16 +1807,16 @@
         <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1827,16 +1824,16 @@
         <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1844,16 +1841,16 @@
         <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1861,16 +1858,16 @@
         <v>51</v>
       </c>
       <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
         <v>126</v>
       </c>
-      <c r="C61" t="s">
-        <v>131</v>
-      </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E61" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1878,16 +1875,16 @@
         <v>51</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D62" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E62" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1895,41 +1892,41 @@
         <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D63" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D64" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E64" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C65" t="s">
         <v>129</v>
@@ -1943,10 +1940,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C66" t="s">
         <v>133</v>
@@ -1963,140 +1960,140 @@
         <v>55</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E68" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D69" t="s">
+        <v>148</v>
+      </c>
+      <c r="E69" t="s">
         <v>150</v>
-      </c>
-      <c r="E69" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C70" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D70" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E70" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C71" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D71" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E71" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D72" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D73" t="s">
+        <v>150</v>
+      </c>
+      <c r="E73" t="s">
         <v>144</v>
-      </c>
-      <c r="E73" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C74" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D74" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E74" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B75" t="s">
         <v>125</v>
@@ -2108,58 +2105,58 @@
         <v>143</v>
       </c>
       <c r="E75" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B76" t="s">
         <v>123</v>
       </c>
       <c r="C76" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D76" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E76" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B77" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C77" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D77" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C78" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D78" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E78" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2170,44 +2167,44 @@
         <v>125</v>
       </c>
       <c r="C79" t="s">
+        <v>131</v>
+      </c>
+      <c r="D79" t="s">
+        <v>144</v>
+      </c>
+      <c r="E79" t="s">
         <v>139</v>
-      </c>
-      <c r="D79" t="s">
-        <v>152</v>
-      </c>
-      <c r="E79" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C80" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D80" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E80" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B81" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C81" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D81" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E81" t="s">
         <v>142</v>
@@ -2215,84 +2212,84 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B82" t="s">
         <v>125</v>
       </c>
       <c r="C82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D82" t="s">
+        <v>148</v>
+      </c>
+      <c r="E82" t="s">
         <v>147</v>
-      </c>
-      <c r="E82" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C83" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D83" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E83" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B84" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C84" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E84" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B85" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C85" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D85" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E85" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B86" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C86" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D86" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E86" t="s">
         <v>145</v>
@@ -2300,169 +2297,169 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B87" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D87" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E87" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B88" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C88" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D88" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E88" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B89" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C89" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D89" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E89" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B90" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C90" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D90" t="s">
+        <v>151</v>
+      </c>
+      <c r="E90" t="s">
         <v>144</v>
-      </c>
-      <c r="E90" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B91" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C91" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D91" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E91" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B92" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C92" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D92" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E92" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B93" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C93" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D93" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E93" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D94" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E94" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B95" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C95" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D95" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E95" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B96" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C96" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D96" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E96" t="s">
         <v>148</v>
@@ -2473,7 +2470,7 @@
         <v>76</v>
       </c>
       <c r="B97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" t="s">
         <v>131</v>
@@ -2482,21 +2479,21 @@
         <v>144</v>
       </c>
       <c r="E97" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B98" t="s">
         <v>124</v>
       </c>
       <c r="C98" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D98" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E98" t="s">
         <v>146</v>
@@ -2510,64 +2507,64 @@
         <v>125</v>
       </c>
       <c r="C99" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D99" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E99" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B100" t="s">
         <v>125</v>
       </c>
       <c r="C100" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D100" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E100" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B101" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C101" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D101" t="s">
+        <v>141</v>
+      </c>
+      <c r="E101" t="s">
         <v>147</v>
-      </c>
-      <c r="E101" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B102" t="s">
         <v>124</v>
       </c>
       <c r="C102" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D102" t="s">
+        <v>142</v>
+      </c>
+      <c r="E102" t="s">
         <v>148</v>
-      </c>
-      <c r="E102" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2575,16 +2572,16 @@
         <v>80</v>
       </c>
       <c r="B103" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C103" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D103" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E103" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2592,16 +2589,16 @@
         <v>81</v>
       </c>
       <c r="B104" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C104" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D104" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2609,16 +2606,16 @@
         <v>81</v>
       </c>
       <c r="B105" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C105" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E105" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2626,16 +2623,16 @@
         <v>82</v>
       </c>
       <c r="B106" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C106" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E106" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2643,16 +2640,16 @@
         <v>83</v>
       </c>
       <c r="B107" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C107" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D107" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E107" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2660,16 +2657,16 @@
         <v>84</v>
       </c>
       <c r="B108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C108" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2677,16 +2674,16 @@
         <v>85</v>
       </c>
       <c r="B109" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C109" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2694,16 +2691,16 @@
         <v>85</v>
       </c>
       <c r="B110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C110" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E110" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2711,16 +2708,16 @@
         <v>86</v>
       </c>
       <c r="B111" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C111" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E111" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2728,16 +2725,16 @@
         <v>87</v>
       </c>
       <c r="B112" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C112" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D112" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E112" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2748,13 +2745,13 @@
         <v>125</v>
       </c>
       <c r="C113" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D113" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E113" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2762,16 +2759,16 @@
         <v>87</v>
       </c>
       <c r="B114" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C114" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D114" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E114" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2779,13 +2776,13 @@
         <v>88</v>
       </c>
       <c r="B115" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C115" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E115" t="s">
         <v>147</v>
@@ -2796,16 +2793,16 @@
         <v>89</v>
       </c>
       <c r="B116" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C116" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D116" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E116" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2813,16 +2810,16 @@
         <v>90</v>
       </c>
       <c r="B117" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C117" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E117" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2830,64 +2827,64 @@
         <v>91</v>
       </c>
       <c r="B118" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C118" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D118" t="s">
+        <v>150</v>
+      </c>
+      <c r="E118" t="s">
         <v>151</v>
-      </c>
-      <c r="E118" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B119" t="s">
         <v>124</v>
       </c>
       <c r="C119" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D119" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E119" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B120" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D120" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E120" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B121" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C121" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D121" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E121" t="s">
         <v>144</v>
@@ -2895,33 +2892,33 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B122" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D122" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E122" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D123" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E123" t="s">
         <v>151</v>
@@ -2929,36 +2926,36 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C124" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D124" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E124" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C125" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D125" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E125" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2966,16 +2963,16 @@
         <v>98</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D126" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E126" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2983,16 +2980,16 @@
         <v>99</v>
       </c>
       <c r="B127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C127" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D127" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E127" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3000,16 +2997,16 @@
         <v>99</v>
       </c>
       <c r="B128" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D128" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E128" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3017,7 +3014,7 @@
         <v>100</v>
       </c>
       <c r="B129" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3026,24 +3023,24 @@
         <v>149</v>
       </c>
       <c r="E129" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B130" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D130" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E130" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3051,16 +3048,16 @@
         <v>101</v>
       </c>
       <c r="B131" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C131" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D131" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E131" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3068,16 +3065,16 @@
         <v>102</v>
       </c>
       <c r="B132" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D132" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E132" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3085,7 +3082,7 @@
         <v>103</v>
       </c>
       <c r="B133" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C133" t="s">
         <v>132</v>
@@ -3094,7 +3091,7 @@
         <v>145</v>
       </c>
       <c r="E133" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3105,13 +3102,13 @@
         <v>125</v>
       </c>
       <c r="C134" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D134" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E134" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3119,16 +3116,16 @@
         <v>103</v>
       </c>
       <c r="B135" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C135" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D135" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E135" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3136,16 +3133,16 @@
         <v>104</v>
       </c>
       <c r="B136" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D136" t="s">
+        <v>148</v>
+      </c>
+      <c r="E136" t="s">
         <v>149</v>
-      </c>
-      <c r="E136" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3153,16 +3150,16 @@
         <v>105</v>
       </c>
       <c r="B137" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C137" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D137" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E137" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3170,101 +3167,101 @@
         <v>106</v>
       </c>
       <c r="B138" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C138" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D138" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E138" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C139" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D139" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E139" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B140" t="s">
         <v>124</v>
       </c>
       <c r="C140" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D140" t="s">
+        <v>142</v>
+      </c>
+      <c r="E140" t="s">
         <v>151</v>
-      </c>
-      <c r="E140" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B141" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C141" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D141" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E141" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B142" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C142" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D142" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E142" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B143" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C143" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D143" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E143" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3272,13 +3269,13 @@
         <v>111</v>
       </c>
       <c r="B144" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C144" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D144" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E144" t="s">
         <v>141</v>
@@ -3286,223 +3283,223 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B145" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C145" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D145" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E145" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B146" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C146" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D146" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E146" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B147" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C147" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D147" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E147" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B148" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C148" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D148" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E148" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C149" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D149" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E149" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B150" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C150" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D150" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E150" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B151" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C151" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D151" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E151" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B152" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C152" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D152" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E152" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B153" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C153" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D153" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E153" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B154" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C154" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D154" t="s">
+        <v>139</v>
+      </c>
+      <c r="E154" t="s">
         <v>140</v>
-      </c>
-      <c r="E154" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B155" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C155" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D155" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B156" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C156" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D156" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E156" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B157" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C157" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D157" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E157" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/example_output/LEAGUE B.xlsx
+++ b/example_output/LEAGUE B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="149">
   <si>
     <t>Date</t>
   </si>
@@ -46,7 +46,7 @@
     <t>2021-10-12</t>
   </si>
   <si>
-    <t>2021-10-15</t>
+    <t>2021-10-14</t>
   </si>
   <si>
     <t>2021-10-17</t>
@@ -61,9 +61,6 @@
     <t>2021-10-24</t>
   </si>
   <si>
-    <t>2021-10-26</t>
-  </si>
-  <si>
     <t>2021-10-27</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>2021-11-01</t>
   </si>
   <si>
-    <t>2021-11-03</t>
-  </si>
-  <si>
     <t>2021-11-07</t>
   </si>
   <si>
@@ -88,7 +82,7 @@
     <t>2021-11-10</t>
   </si>
   <si>
-    <t>2021-11-12</t>
+    <t>2021-11-11</t>
   </si>
   <si>
     <t>2021-11-14</t>
@@ -109,9 +103,6 @@
     <t>2021-11-25</t>
   </si>
   <si>
-    <t>2021-11-26</t>
-  </si>
-  <si>
     <t>2021-11-28</t>
   </si>
   <si>
@@ -121,12 +112,12 @@
     <t>2021-12-04</t>
   </si>
   <si>
-    <t>2021-12-05</t>
-  </si>
-  <si>
     <t>2021-12-07</t>
   </si>
   <si>
+    <t>2021-12-08</t>
+  </si>
+  <si>
     <t>2021-12-09</t>
   </si>
   <si>
@@ -148,13 +139,10 @@
     <t>2021-12-22</t>
   </si>
   <si>
-    <t>2021-12-23</t>
-  </si>
-  <si>
     <t>2021-12-24</t>
   </si>
   <si>
-    <t>2021-12-26</t>
+    <t>2021-12-27</t>
   </si>
   <si>
     <t>2021-12-29</t>
@@ -166,9 +154,6 @@
     <t>2022-01-04</t>
   </si>
   <si>
-    <t>2022-01-05</t>
-  </si>
-  <si>
     <t>2022-01-07</t>
   </si>
   <si>
@@ -178,16 +163,13 @@
     <t>2022-01-10</t>
   </si>
   <si>
-    <t>2022-01-12</t>
-  </si>
-  <si>
     <t>2022-01-18</t>
   </si>
   <si>
     <t>2022-01-19</t>
   </si>
   <si>
-    <t>2022-01-20</t>
+    <t>2022-01-21</t>
   </si>
   <si>
     <t>2022-02-01</t>
@@ -202,18 +184,9 @@
     <t>2022-02-06</t>
   </si>
   <si>
-    <t>2022-02-07</t>
-  </si>
-  <si>
-    <t>2022-02-12</t>
-  </si>
-  <si>
     <t>2022-02-15</t>
   </si>
   <si>
-    <t>2022-02-16</t>
-  </si>
-  <si>
     <t>2022-02-18</t>
   </si>
   <si>
@@ -238,6 +211,9 @@
     <t>2022-03-04</t>
   </si>
   <si>
+    <t>2022-03-07</t>
+  </si>
+  <si>
     <t>2022-03-09</t>
   </si>
   <si>
@@ -247,13 +223,19 @@
     <t>2022-03-15</t>
   </si>
   <si>
+    <t>2022-03-16</t>
+  </si>
+  <si>
     <t>2022-03-17</t>
   </si>
   <si>
+    <t>2022-03-18</t>
+  </si>
+  <si>
     <t>2022-03-20</t>
   </si>
   <si>
-    <t>2022-03-21</t>
+    <t>2022-03-23</t>
   </si>
   <si>
     <t>2022-03-27</t>
@@ -262,7 +244,10 @@
     <t>2022-03-29</t>
   </si>
   <si>
-    <t>2022-03-30</t>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
   </si>
   <si>
     <t>2022-04-03</t>
@@ -280,15 +265,15 @@
     <t>2022-04-12</t>
   </si>
   <si>
-    <t>2022-04-14</t>
-  </si>
-  <si>
     <t>2022-04-15</t>
   </si>
   <si>
     <t>2022-04-17</t>
   </si>
   <si>
+    <t>2022-04-18</t>
+  </si>
+  <si>
     <t>2022-04-20</t>
   </si>
   <si>
@@ -310,15 +295,24 @@
     <t>2022-05-01</t>
   </si>
   <si>
+    <t>2022-05-04</t>
+  </si>
+  <si>
     <t>2022-05-08</t>
   </si>
   <si>
     <t>2022-05-10</t>
   </si>
   <si>
+    <t>2022-05-11</t>
+  </si>
+  <si>
     <t>2022-05-12</t>
   </si>
   <si>
+    <t>2022-05-16</t>
+  </si>
+  <si>
     <t>2022-05-18</t>
   </si>
   <si>
@@ -328,34 +322,28 @@
     <t>2022-05-24</t>
   </si>
   <si>
-    <t>2022-05-25</t>
-  </si>
-  <si>
     <t>2022-05-26</t>
   </si>
   <si>
+    <t>2022-05-28</t>
+  </si>
+  <si>
     <t>2022-05-29</t>
   </si>
   <si>
-    <t>2022-05-30</t>
-  </si>
-  <si>
     <t>2022-06-04</t>
   </si>
   <si>
     <t>2022-06-05</t>
   </si>
   <si>
-    <t>2022-06-06</t>
-  </si>
-  <si>
     <t>2022-06-07</t>
   </si>
   <si>
     <t>2022-06-08</t>
   </si>
   <si>
-    <t>2022-06-13</t>
+    <t>2022-06-10</t>
   </si>
   <si>
     <t>2022-06-15</t>
@@ -367,7 +355,7 @@
     <t>2022-06-19</t>
   </si>
   <si>
-    <t>2022-06-21</t>
+    <t>2022-06-22</t>
   </si>
   <si>
     <t>2022-06-23</t>
@@ -385,34 +373,40 @@
     <t>19u</t>
   </si>
   <si>
+    <t>22u</t>
+  </si>
+  <si>
     <t>18u</t>
   </si>
   <si>
-    <t>22u</t>
-  </si>
-  <si>
     <t>20u</t>
   </si>
   <si>
+    <t>17u</t>
+  </si>
+  <si>
     <t>Gillette Stadium</t>
   </si>
   <si>
+    <t>Signal Iduna Park</t>
+  </si>
+  <si>
     <t>Arrowhead Stadium</t>
   </si>
   <si>
-    <t>Signal Iduna Park</t>
-  </si>
-  <si>
     <t>Estadio Azteca</t>
   </si>
   <si>
     <t>United Center</t>
   </si>
   <si>
+    <t>Soldier Field</t>
+  </si>
+  <si>
     <t>Etihad Stadium</t>
   </si>
   <si>
-    <t>Soldier Field</t>
+    <t>FedExField</t>
   </si>
   <si>
     <t>Maracana Stadium</t>
@@ -424,9 +418,6 @@
     <t>MetLife Stadium</t>
   </si>
   <si>
-    <t>FedExField</t>
-  </si>
-  <si>
     <t>Estadio Monumental</t>
   </si>
   <si>
@@ -436,22 +427,25 @@
     <t>Jaguars</t>
   </si>
   <si>
+    <t>Leopards</t>
+  </si>
+  <si>
     <t>Pumas</t>
   </si>
   <si>
-    <t>Leopards</t>
-  </si>
-  <si>
     <t>Grizzlies</t>
   </si>
   <si>
     <t>Bulls</t>
   </si>
   <si>
+    <t>Scorpions</t>
+  </si>
+  <si>
     <t>Hawks</t>
   </si>
   <si>
-    <t>Scorpions</t>
+    <t>Pythons</t>
   </si>
   <si>
     <t>Buffalos</t>
@@ -461,9 +455,6 @@
   </si>
   <si>
     <t>Rhinos</t>
-  </si>
-  <si>
-    <t>Pythons</t>
   </si>
   <si>
     <t>Cheetahs</t>
@@ -855,16 +846,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -872,13 +863,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
         <v>144</v>
@@ -889,16 +880,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -906,16 +897,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -923,16 +914,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -940,16 +931,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" t="s">
         <v>144</v>
-      </c>
-      <c r="E7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -957,16 +948,16 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" t="s">
         <v>145</v>
-      </c>
-      <c r="E8" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -974,16 +965,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -991,16 +982,16 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1008,16 +999,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1025,16 +1016,16 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1042,16 +1033,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1059,16 +1050,16 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1076,16 +1067,16 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1093,16 +1084,16 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1110,135 +1101,135 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" t="s">
         <v>125</v>
       </c>
-      <c r="C17" t="s">
-        <v>136</v>
-      </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" t="s">
         <v>137</v>
       </c>
-      <c r="D19" t="s">
-        <v>150</v>
-      </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" t="s">
         <v>144</v>
-      </c>
-      <c r="E24" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1246,16 +1237,16 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1263,200 +1254,200 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" t="s">
         <v>140</v>
-      </c>
-      <c r="E28" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" t="s">
         <v>142</v>
-      </c>
-      <c r="E29" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s">
         <v>124</v>
       </c>
-      <c r="C30" t="s">
-        <v>133</v>
-      </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E32" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E33" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E34" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E35" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E36" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" t="s">
         <v>124</v>
       </c>
-      <c r="C37" t="s">
-        <v>128</v>
-      </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
         <v>143</v>
@@ -1464,16 +1455,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E38" t="s">
         <v>145</v>
@@ -1481,33 +1472,33 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E40" t="s">
         <v>140</v>
@@ -1515,135 +1506,135 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" t="s">
         <v>138</v>
-      </c>
-      <c r="D43" t="s">
-        <v>151</v>
-      </c>
-      <c r="E43" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E44" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D45" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" t="s">
         <v>139</v>
-      </c>
-      <c r="E45" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" t="s">
         <v>123</v>
       </c>
-      <c r="C46" t="s">
-        <v>127</v>
-      </c>
       <c r="D46" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E46" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D47" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E48" t="s">
         <v>140</v>
@@ -1651,44 +1642,44 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E50" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C51" t="s">
         <v>135</v>
@@ -1697,242 +1688,242 @@
         <v>148</v>
       </c>
       <c r="E51" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E52" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E53" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E54" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" t="s">
         <v>137</v>
-      </c>
-      <c r="D57" t="s">
-        <v>150</v>
-      </c>
-      <c r="E57" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D58" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E58" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E59" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D60" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E60" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E61" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E63" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D64" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E64" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D65" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E65" t="s">
         <v>147</v>
@@ -1940,50 +1931,50 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D66" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E66" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D67" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E67" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C68" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E68" t="s">
         <v>147</v>
@@ -1991,526 +1982,526 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D69" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E69" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B70" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C70" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70" t="s">
         <v>136</v>
       </c>
-      <c r="D70" t="s">
-        <v>149</v>
-      </c>
       <c r="E70" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B71" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D71" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B72" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D73" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E73" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C74" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D74" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B75" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C75" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D75" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E75" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B76" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C76" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D76" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E76" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B77" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C77" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D77" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C78" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D78" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E78" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B79" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C79" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D79" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E79" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B80" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C80" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D80" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C81" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D81" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E81" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B82" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C82" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D82" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E82" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B83" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C83" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D83" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E83" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B84" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D84" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E84" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B85" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D85" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E85" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B86" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C86" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D86" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E86" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C87" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D87" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E87" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C88" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D88" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E88" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C89" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D89" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E89" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B90" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C90" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D90" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E90" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B91" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C91" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D91" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E91" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B92" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C92" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D92" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E92" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B93" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C93" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D93" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E93" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B94" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E94" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B95" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C95" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D95" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B96" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E96" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B97" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C97" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D97" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E97" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B98" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C98" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D98" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E98" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B99" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99" t="s">
         <v>125</v>
       </c>
-      <c r="C99" t="s">
-        <v>130</v>
-      </c>
       <c r="D99" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E99" t="s">
         <v>139</v>
@@ -2518,186 +2509,186 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C100" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D100" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E100" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B101" t="s">
+        <v>119</v>
+      </c>
+      <c r="C101" t="s">
         <v>124</v>
       </c>
-      <c r="C101" t="s">
-        <v>128</v>
-      </c>
       <c r="D101" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B102" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C102" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D102" t="s">
+        <v>145</v>
+      </c>
+      <c r="E102" t="s">
         <v>142</v>
-      </c>
-      <c r="E102" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B103" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C103" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D103" t="s">
+        <v>141</v>
+      </c>
+      <c r="E103" t="s">
         <v>147</v>
-      </c>
-      <c r="E103" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B104" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C104" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D104" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E104" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B105" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C105" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D105" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E105" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B106" t="s">
+        <v>120</v>
+      </c>
+      <c r="C106" t="s">
         <v>125</v>
       </c>
-      <c r="C106" t="s">
-        <v>135</v>
-      </c>
       <c r="D106" t="s">
+        <v>138</v>
+      </c>
+      <c r="E106" t="s">
         <v>148</v>
-      </c>
-      <c r="E106" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B107" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C107" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D107" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E107" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B108" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C108" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D108" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E108" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B109" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C109" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D109" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E109" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B110" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C110" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D110" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E110" t="s">
         <v>143</v>
@@ -2705,339 +2696,339 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B111" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C111" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D111" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E111" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B112" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C112" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D112" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E112" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B113" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C113" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D113" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E113" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B114" t="s">
+        <v>119</v>
+      </c>
+      <c r="C114" t="s">
         <v>124</v>
       </c>
-      <c r="C114" t="s">
-        <v>138</v>
-      </c>
       <c r="D114" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B115" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C115" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D115" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D116" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E116" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B117" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D117" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E117" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B118" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C118" t="s">
+        <v>132</v>
+      </c>
+      <c r="D118" t="s">
+        <v>145</v>
+      </c>
+      <c r="E118" t="s">
         <v>137</v>
-      </c>
-      <c r="D118" t="s">
-        <v>150</v>
-      </c>
-      <c r="E118" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B119" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D119" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E119" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D120" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E120" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D121" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E121" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C122" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D122" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E122" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B123" t="s">
+        <v>120</v>
+      </c>
+      <c r="C123" t="s">
         <v>125</v>
       </c>
-      <c r="C123" t="s">
-        <v>136</v>
-      </c>
       <c r="D123" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E123" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C124" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D124" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E124" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C125" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D125" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E125" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B126" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C126" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D126" t="s">
+        <v>142</v>
+      </c>
+      <c r="E126" t="s">
         <v>141</v>
-      </c>
-      <c r="E126" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B127" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C127" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D127" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E127" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B128" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C128" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D128" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E128" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B129" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C129" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D129" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E129" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B130" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C130" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D130" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E130" t="s">
         <v>145</v>
@@ -3045,44 +3036,44 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B131" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C131" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D131" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E131" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B132" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C132" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D132" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E132" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B133" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C133" t="s">
         <v>132</v>
@@ -3096,101 +3087,101 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B134" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C134" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D134" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E134" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B135" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C135" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D135" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E135" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B136" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C136" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D136" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E136" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B137" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C137" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D137" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E137" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B138" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C138" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D138" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E138" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B139" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C139" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D139" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E139" t="s">
         <v>144</v>
@@ -3198,308 +3189,308 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B140" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C140" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D140" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E140" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B141" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C141" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D141" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E141" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B142" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C142" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D142" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E142" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B143" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C143" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D143" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E143" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B144" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C144" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D144" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E144" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B145" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C145" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D145" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E145" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B146" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C146" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D146" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E146" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B147" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C147" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D147" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E147" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B148" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D148" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E148" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B149" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C149" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D149" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E149" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B150" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C150" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D150" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E150" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B151" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C151" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D151" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E151" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B152" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C152" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D152" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E152" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B153" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C153" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D153" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E153" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B154" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C154" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D154" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E154" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B155" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C155" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D155" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E155" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B156" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C156" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D156" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E156" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B157" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C157" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D157" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E157" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/example_output/LEAGUE B.xlsx
+++ b/example_output/LEAGUE B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="154">
   <si>
     <t>Date</t>
   </si>
@@ -49,6 +49,9 @@
     <t>2021-10-14</t>
   </si>
   <si>
+    <t>2021-10-15</t>
+  </si>
+  <si>
     <t>2021-10-17</t>
   </si>
   <si>
@@ -61,16 +64,19 @@
     <t>2021-10-24</t>
   </si>
   <si>
+    <t>2021-10-26</t>
+  </si>
+  <si>
     <t>2021-10-27</t>
   </si>
   <si>
-    <t>2021-10-28</t>
+    <t>2021-10-29</t>
   </si>
   <si>
     <t>2021-10-31</t>
   </si>
   <si>
-    <t>2021-11-01</t>
+    <t>2021-11-03</t>
   </si>
   <si>
     <t>2021-11-07</t>
@@ -85,15 +91,15 @@
     <t>2021-11-11</t>
   </si>
   <si>
+    <t>2021-11-12</t>
+  </si>
+  <si>
     <t>2021-11-14</t>
   </si>
   <si>
     <t>2021-11-15</t>
   </si>
   <si>
-    <t>2021-11-17</t>
-  </si>
-  <si>
     <t>2021-11-21</t>
   </si>
   <si>
@@ -106,18 +112,15 @@
     <t>2021-11-28</t>
   </si>
   <si>
-    <t>2021-11-29</t>
-  </si>
-  <si>
     <t>2021-12-04</t>
   </si>
   <si>
+    <t>2021-12-05</t>
+  </si>
+  <si>
     <t>2021-12-07</t>
   </si>
   <si>
-    <t>2021-12-08</t>
-  </si>
-  <si>
     <t>2021-12-09</t>
   </si>
   <si>
@@ -139,10 +142,13 @@
     <t>2021-12-22</t>
   </si>
   <si>
+    <t>2021-12-23</t>
+  </si>
+  <si>
     <t>2021-12-24</t>
   </si>
   <si>
-    <t>2021-12-27</t>
+    <t>2021-12-26</t>
   </si>
   <si>
     <t>2021-12-29</t>
@@ -151,6 +157,9 @@
     <t>2022-01-01</t>
   </si>
   <si>
+    <t>2022-01-02</t>
+  </si>
+  <si>
     <t>2022-01-04</t>
   </si>
   <si>
@@ -163,6 +172,9 @@
     <t>2022-01-10</t>
   </si>
   <si>
+    <t>2022-01-12</t>
+  </si>
+  <si>
     <t>2022-01-18</t>
   </si>
   <si>
@@ -184,12 +196,15 @@
     <t>2022-02-06</t>
   </si>
   <si>
+    <t>2022-02-07</t>
+  </si>
+  <si>
+    <t>2022-02-12</t>
+  </si>
+  <si>
     <t>2022-02-15</t>
   </si>
   <si>
-    <t>2022-02-18</t>
-  </si>
-  <si>
     <t>2022-02-20</t>
   </si>
   <si>
@@ -217,15 +232,9 @@
     <t>2022-03-09</t>
   </si>
   <si>
-    <t>2022-03-13</t>
-  </si>
-  <si>
     <t>2022-03-15</t>
   </si>
   <si>
-    <t>2022-03-16</t>
-  </si>
-  <si>
     <t>2022-03-17</t>
   </si>
   <si>
@@ -235,6 +244,9 @@
     <t>2022-03-20</t>
   </si>
   <si>
+    <t>2022-03-21</t>
+  </si>
+  <si>
     <t>2022-03-23</t>
   </si>
   <si>
@@ -244,6 +256,9 @@
     <t>2022-03-29</t>
   </si>
   <si>
+    <t>2022-03-30</t>
+  </si>
+  <si>
     <t>2022-03-31</t>
   </si>
   <si>
@@ -265,15 +280,15 @@
     <t>2022-04-12</t>
   </si>
   <si>
+    <t>2022-04-13</t>
+  </si>
+  <si>
     <t>2022-04-15</t>
   </si>
   <si>
     <t>2022-04-17</t>
   </si>
   <si>
-    <t>2022-04-18</t>
-  </si>
-  <si>
     <t>2022-04-20</t>
   </si>
   <si>
@@ -295,7 +310,7 @@
     <t>2022-05-01</t>
   </si>
   <si>
-    <t>2022-05-04</t>
+    <t>2022-05-07</t>
   </si>
   <si>
     <t>2022-05-08</t>
@@ -304,12 +319,15 @@
     <t>2022-05-10</t>
   </si>
   <si>
-    <t>2022-05-11</t>
-  </si>
-  <si>
     <t>2022-05-12</t>
   </si>
   <si>
+    <t>2022-05-13</t>
+  </si>
+  <si>
+    <t>2022-05-15</t>
+  </si>
+  <si>
     <t>2022-05-16</t>
   </si>
   <si>
@@ -322,28 +340,31 @@
     <t>2022-05-24</t>
   </si>
   <si>
+    <t>2022-05-25</t>
+  </si>
+  <si>
     <t>2022-05-26</t>
   </si>
   <si>
-    <t>2022-05-28</t>
-  </si>
-  <si>
-    <t>2022-05-29</t>
-  </si>
-  <si>
-    <t>2022-06-04</t>
+    <t>2022-05-30</t>
   </si>
   <si>
     <t>2022-06-05</t>
   </si>
   <si>
+    <t>2022-06-06</t>
+  </si>
+  <si>
     <t>2022-06-07</t>
   </si>
   <si>
     <t>2022-06-08</t>
   </si>
   <si>
-    <t>2022-06-10</t>
+    <t>2022-06-12</t>
+  </si>
+  <si>
+    <t>2022-06-13</t>
   </si>
   <si>
     <t>2022-06-15</t>
@@ -352,9 +373,6 @@
     <t>2022-06-17</t>
   </si>
   <si>
-    <t>2022-06-19</t>
-  </si>
-  <si>
     <t>2022-06-22</t>
   </si>
   <si>
@@ -380,9 +398,6 @@
   </si>
   <si>
     <t>20u</t>
-  </si>
-  <si>
-    <t>17u</t>
   </si>
   <si>
     <t>Gillette Stadium</t>
@@ -846,16 +861,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -863,16 +878,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -880,16 +895,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -897,16 +912,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -914,16 +929,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -931,16 +946,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,16 +963,16 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -965,16 +980,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -982,16 +997,16 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -999,16 +1014,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1016,33 +1031,33 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1050,16 +1065,16 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1067,16 +1082,16 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E15" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1084,16 +1099,16 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1101,126 +1116,126 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E22" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E23" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
         <v>133</v>
@@ -1229,7 +1244,7 @@
         <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1237,16 +1252,16 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1254,67 +1269,67 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E29" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1322,13 +1337,13 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E30" t="s">
         <v>147</v>
@@ -1336,214 +1351,214 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" t="s">
         <v>145</v>
-      </c>
-      <c r="E31" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E32" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E35" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="E38" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="E39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D40" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E40" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E41" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E42" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
         <v>135</v>
@@ -1552,32 +1567,32 @@
         <v>148</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
         <v>130</v>
@@ -1586,38 +1601,38 @@
         <v>143</v>
       </c>
       <c r="E45" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E47" t="s">
         <v>143</v>
@@ -1625,135 +1640,135 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E48" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E49" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E50" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D52" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" t="s">
         <v>146</v>
-      </c>
-      <c r="E52" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D53" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E53" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E54" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D55" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E55" t="s">
         <v>141</v>
@@ -1761,758 +1776,758 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D56" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E56" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D57" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E57" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D58" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E58" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D59" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E59" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D60" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E60" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D61" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E61" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D62" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E62" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D63" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E63" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D64" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E64" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D65" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E65" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C66" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D66" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E66" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D67" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" t="s">
         <v>148</v>
-      </c>
-      <c r="E67" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B68" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D68" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E68" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C69" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D69" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E69" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C70" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D70" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E70" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C71" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D71" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E71" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C72" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D72" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E72" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D73" t="s">
+        <v>152</v>
+      </c>
+      <c r="E73" t="s">
         <v>147</v>
-      </c>
-      <c r="E73" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C74" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D74" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C75" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D75" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E75" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B76" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C76" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D76" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E76" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B77" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C77" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D77" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E77" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C78" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D78" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B79" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C79" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D79" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D80" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E80" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B81" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C81" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D81" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E81" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B82" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C82" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D82" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E82" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B83" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C83" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D83" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E83" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B84" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C84" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D84" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E84" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C85" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D85" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E85" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B86" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C86" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D86" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E86" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B87" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C87" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D87" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E87" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B88" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C88" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D88" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E88" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B89" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C89" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D89" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E89" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B90" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C90" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D90" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E90" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B91" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C91" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D91" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E91" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B92" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C92" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D92" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E92" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B93" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C93" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D93" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E93" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B94" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D94" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E94" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B95" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E95" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B96" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C96" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D96" t="s">
+        <v>153</v>
+      </c>
+      <c r="E96" t="s">
         <v>146</v>
-      </c>
-      <c r="E96" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B97" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C97" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D97" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E97" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B98" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C98" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D98" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E98" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B99" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C99" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D99" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E99" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B100" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C100" t="s">
         <v>131</v>
@@ -2526,288 +2541,288 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B101" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C101" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D101" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="E101" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B102" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C102" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D102" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E102" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B103" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C103" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D103" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E103" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B104" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C104" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D104" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E104" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B105" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C105" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D105" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E105" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B106" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C106" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D106" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E106" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B107" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C107" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D107" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E107" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B108" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C108" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D108" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E108" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B109" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C109" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D109" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E109" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C110" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D110" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E110" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B111" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C111" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D111" t="s">
+        <v>146</v>
+      </c>
+      <c r="E111" t="s">
         <v>148</v>
-      </c>
-      <c r="E111" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B112" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C112" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D112" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E112" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B113" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C113" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D113" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B114" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C114" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D114" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E114" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B115" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C115" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D115" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E115" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D116" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E116" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D117" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E117" t="s">
         <v>148</v>
@@ -2815,44 +2830,44 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D118" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E118" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C119" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D119" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E119" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C120" t="s">
         <v>133</v>
@@ -2861,134 +2876,134 @@
         <v>146</v>
       </c>
       <c r="E120" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C121" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D121" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E121" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B122" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C122" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D122" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E122" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B123" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D123" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E123" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B124" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D124" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E124" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B125" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="D125" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="E125" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B126" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D126" t="s">
+        <v>150</v>
+      </c>
+      <c r="E126" t="s">
         <v>142</v>
-      </c>
-      <c r="E126" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B127" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D127" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E127" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B128" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C128" t="s">
         <v>133</v>
@@ -2997,225 +3012,225 @@
         <v>146</v>
       </c>
       <c r="E128" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B129" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C129" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D129" t="s">
+        <v>153</v>
+      </c>
+      <c r="E129" t="s">
         <v>143</v>
-      </c>
-      <c r="E129" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B130" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C130" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D130" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E130" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B131" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C131" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D131" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E131" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B132" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C132" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D132" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E132" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B133" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D133" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E133" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B134" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C134" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D134" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E134" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B135" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C135" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D135" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E135" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B136" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C136" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D136" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E136" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B137" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C137" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D137" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E137" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B138" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C138" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D138" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E138" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B139" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C139" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D139" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E139" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B140" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C140" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D140" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E140" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B141" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C141" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D141" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E141" t="s">
         <v>143</v>
@@ -3223,112 +3238,112 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B142" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C142" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D142" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E142" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B143" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C143" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D143" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E143" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B144" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C144" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D144" t="s">
+        <v>147</v>
+      </c>
+      <c r="E144" t="s">
         <v>142</v>
-      </c>
-      <c r="E144" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B145" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C145" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D145" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E145" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B146" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C146" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D146" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E146" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B147" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C147" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D147" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E147" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B148" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C148" t="s">
         <v>131</v>
@@ -3337,160 +3352,160 @@
         <v>144</v>
       </c>
       <c r="E148" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B149" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C149" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D149" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E149" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B150" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C150" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D150" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E150" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B151" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C151" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D151" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E151" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B152" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C152" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D152" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B153" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C153" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D153" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E153" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B154" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C154" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D154" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E154" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B155" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C155" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D155" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E155" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B156" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C156" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D156" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E156" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B157" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C157" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D157" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E157" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/example_output/LEAGUE B.xlsx
+++ b/example_output/LEAGUE B.xlsx
@@ -40,6 +40,9 @@
     <t>2021-10-04</t>
   </si>
   <si>
+    <t>2021-10-10</t>
+  </si>
+  <si>
     <t>2021-10-11</t>
   </si>
   <si>
@@ -70,7 +73,7 @@
     <t>2021-10-27</t>
   </si>
   <si>
-    <t>2021-10-29</t>
+    <t>2021-10-28</t>
   </si>
   <si>
     <t>2021-10-31</t>
@@ -88,9 +91,6 @@
     <t>2021-11-10</t>
   </si>
   <si>
-    <t>2021-11-11</t>
-  </si>
-  <si>
     <t>2021-11-12</t>
   </si>
   <si>
@@ -100,15 +100,24 @@
     <t>2021-11-15</t>
   </si>
   <si>
+    <t>2021-11-17</t>
+  </si>
+  <si>
     <t>2021-11-21</t>
   </si>
   <si>
     <t>2021-11-23</t>
   </si>
   <si>
+    <t>2021-11-24</t>
+  </si>
+  <si>
     <t>2021-11-25</t>
   </si>
   <si>
+    <t>2021-11-26</t>
+  </si>
+  <si>
     <t>2021-11-28</t>
   </si>
   <si>
@@ -124,13 +133,10 @@
     <t>2021-12-09</t>
   </si>
   <si>
-    <t>2021-12-10</t>
-  </si>
-  <si>
     <t>2021-12-12</t>
   </si>
   <si>
-    <t>2021-12-15</t>
+    <t>2021-12-13</t>
   </si>
   <si>
     <t>2021-12-19</t>
@@ -139,9 +145,6 @@
     <t>2021-12-21</t>
   </si>
   <si>
-    <t>2021-12-22</t>
-  </si>
-  <si>
     <t>2021-12-23</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t>2021-12-26</t>
   </si>
   <si>
+    <t>2021-12-27</t>
+  </si>
+  <si>
     <t>2021-12-29</t>
   </si>
   <si>
@@ -163,6 +169,9 @@
     <t>2022-01-04</t>
   </si>
   <si>
+    <t>2022-01-05</t>
+  </si>
+  <si>
     <t>2022-01-07</t>
   </si>
   <si>
@@ -181,6 +190,9 @@
     <t>2022-01-19</t>
   </si>
   <si>
+    <t>2022-01-20</t>
+  </si>
+  <si>
     <t>2022-01-21</t>
   </si>
   <si>
@@ -196,16 +208,16 @@
     <t>2022-02-06</t>
   </si>
   <si>
-    <t>2022-02-07</t>
-  </si>
-  <si>
     <t>2022-02-12</t>
   </si>
   <si>
     <t>2022-02-15</t>
   </si>
   <si>
-    <t>2022-02-20</t>
+    <t>2022-02-16</t>
+  </si>
+  <si>
+    <t>2022-02-21</t>
   </si>
   <si>
     <t>2022-02-23</t>
@@ -232,6 +244,9 @@
     <t>2022-03-09</t>
   </si>
   <si>
+    <t>2022-03-13</t>
+  </si>
+  <si>
     <t>2022-03-15</t>
   </si>
   <si>
@@ -244,9 +259,6 @@
     <t>2022-03-20</t>
   </si>
   <si>
-    <t>2022-03-21</t>
-  </si>
-  <si>
     <t>2022-03-23</t>
   </si>
   <si>
@@ -256,12 +268,6 @@
     <t>2022-03-29</t>
   </si>
   <si>
-    <t>2022-03-30</t>
-  </si>
-  <si>
-    <t>2022-03-31</t>
-  </si>
-  <si>
     <t>2022-04-01</t>
   </si>
   <si>
@@ -283,6 +289,9 @@
     <t>2022-04-13</t>
   </si>
   <si>
+    <t>2022-04-14</t>
+  </si>
+  <si>
     <t>2022-04-15</t>
   </si>
   <si>
@@ -322,18 +331,9 @@
     <t>2022-05-12</t>
   </si>
   <si>
-    <t>2022-05-13</t>
-  </si>
-  <si>
-    <t>2022-05-15</t>
-  </si>
-  <si>
     <t>2022-05-16</t>
   </si>
   <si>
-    <t>2022-05-18</t>
-  </si>
-  <si>
     <t>2022-05-22</t>
   </si>
   <si>
@@ -346,19 +346,19 @@
     <t>2022-05-26</t>
   </si>
   <si>
+    <t>2022-05-28</t>
+  </si>
+  <si>
     <t>2022-05-30</t>
   </si>
   <si>
     <t>2022-06-05</t>
   </si>
   <si>
-    <t>2022-06-06</t>
-  </si>
-  <si>
     <t>2022-06-07</t>
   </si>
   <si>
-    <t>2022-06-08</t>
+    <t>2022-06-10</t>
   </si>
   <si>
     <t>2022-06-12</t>
@@ -373,63 +373,63 @@
     <t>2022-06-17</t>
   </si>
   <si>
+    <t>2022-06-21</t>
+  </si>
+  <si>
     <t>2022-06-22</t>
   </si>
   <si>
-    <t>2022-06-23</t>
-  </si>
-  <si>
     <t>2022-06-24</t>
   </si>
   <si>
-    <t>2022-06-27</t>
-  </si>
-  <si>
     <t>2022-06-29</t>
   </si>
   <si>
     <t>19u</t>
   </si>
   <si>
+    <t>18u</t>
+  </si>
+  <si>
     <t>22u</t>
   </si>
   <si>
-    <t>18u</t>
-  </si>
-  <si>
     <t>20u</t>
   </si>
   <si>
+    <t>17u</t>
+  </si>
+  <si>
     <t>Gillette Stadium</t>
   </si>
   <si>
+    <t>Arrowhead Stadium</t>
+  </si>
+  <si>
     <t>Signal Iduna Park</t>
   </si>
   <si>
-    <t>Arrowhead Stadium</t>
-  </si>
-  <si>
     <t>Estadio Azteca</t>
   </si>
   <si>
+    <t>Lambeau Field</t>
+  </si>
+  <si>
     <t>United Center</t>
   </si>
   <si>
+    <t>Etihad Stadium</t>
+  </si>
+  <si>
+    <t>FedExField</t>
+  </si>
+  <si>
+    <t>Maracana Stadium</t>
+  </si>
+  <si>
     <t>Soldier Field</t>
   </si>
   <si>
-    <t>Etihad Stadium</t>
-  </si>
-  <si>
-    <t>FedExField</t>
-  </si>
-  <si>
-    <t>Maracana Stadium</t>
-  </si>
-  <si>
-    <t>Lambeau Field</t>
-  </si>
-  <si>
     <t>MetLife Stadium</t>
   </si>
   <si>
@@ -442,31 +442,31 @@
     <t>Jaguars</t>
   </si>
   <si>
+    <t>Pumas</t>
+  </si>
+  <si>
     <t>Leopards</t>
   </si>
   <si>
-    <t>Pumas</t>
-  </si>
-  <si>
     <t>Grizzlies</t>
   </si>
   <si>
+    <t>Panthers</t>
+  </si>
+  <si>
     <t>Bulls</t>
   </si>
   <si>
+    <t>Hawks</t>
+  </si>
+  <si>
+    <t>Pythons</t>
+  </si>
+  <si>
+    <t>Buffalos</t>
+  </si>
+  <si>
     <t>Scorpions</t>
-  </si>
-  <si>
-    <t>Hawks</t>
-  </si>
-  <si>
-    <t>Pythons</t>
-  </si>
-  <si>
-    <t>Buffalos</t>
-  </si>
-  <si>
-    <t>Panthers</t>
   </si>
   <si>
     <t>Rhinos</t>
@@ -861,7 +861,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
         <v>128</v>
@@ -870,7 +870,7 @@
         <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -878,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
         <v>129</v>
@@ -887,7 +887,7 @@
         <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -895,7 +895,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
         <v>130</v>
@@ -904,7 +904,7 @@
         <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -921,7 +921,7 @@
         <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -929,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
         <v>132</v>
@@ -938,7 +938,7 @@
         <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -946,7 +946,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
         <v>133</v>
@@ -955,15 +955,15 @@
         <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
         <v>134</v>
@@ -972,15 +972,15 @@
         <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
         <v>135</v>
@@ -989,15 +989,15 @@
         <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
         <v>128</v>
@@ -1006,29 +1006,29 @@
         <v>141</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>125</v>
@@ -1040,29 +1040,29 @@
         <v>144</v>
       </c>
       <c r="E12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>125</v>
@@ -1074,38 +1074,38 @@
         <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E15" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
         <v>144</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
         <v>138</v>
@@ -1125,63 +1125,63 @@
         <v>151</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E19" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>125</v>
@@ -1198,24 +1198,24 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E22" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>126</v>
@@ -1227,253 +1227,253 @@
         <v>150</v>
       </c>
       <c r="E23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E27" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E32" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E35" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C38" t="s">
         <v>139</v>
@@ -1482,55 +1482,55 @@
         <v>152</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
         <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D41" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E41" t="s">
         <v>151</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
         <v>125</v>
@@ -1550,15 +1550,15 @@
         <v>153</v>
       </c>
       <c r="E42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
         <v>135</v>
@@ -1567,117 +1567,117 @@
         <v>148</v>
       </c>
       <c r="E43" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
         <v>124</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E44" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E45" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D46" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E46" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
         <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E47" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D49" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E49" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C50" t="s">
         <v>134</v>
@@ -1686,80 +1686,80 @@
         <v>147</v>
       </c>
       <c r="E50" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D52" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E53" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E54" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
         <v>125</v>
@@ -1771,15 +1771,15 @@
         <v>149</v>
       </c>
       <c r="E55" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C56" t="s">
         <v>139</v>
@@ -1793,95 +1793,95 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
         <v>125</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D57" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E57" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D58" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E58" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D59" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E59" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E60" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D61" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E61" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C62" t="s">
         <v>129</v>
@@ -1890,15 +1890,15 @@
         <v>142</v>
       </c>
       <c r="E62" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C63" t="s">
         <v>130</v>
@@ -1907,12 +1907,12 @@
         <v>143</v>
       </c>
       <c r="E63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B64" t="s">
         <v>125</v>
@@ -1924,12 +1924,12 @@
         <v>144</v>
       </c>
       <c r="E64" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
         <v>125</v>
@@ -1941,83 +1941,83 @@
         <v>149</v>
       </c>
       <c r="E65" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D66" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B67" t="s">
         <v>125</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D67" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E67" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C68" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E68" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E69" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C70" t="s">
         <v>128</v>
@@ -2026,55 +2026,55 @@
         <v>141</v>
       </c>
       <c r="E70" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B71" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C71" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D71" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E71" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B72" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D72" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E72" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B73" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E73" t="s">
         <v>147</v>
@@ -2082,27 +2082,27 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D74" t="s">
+        <v>146</v>
+      </c>
+      <c r="E74" t="s">
         <v>145</v>
-      </c>
-      <c r="E74" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C75" t="s">
         <v>135</v>
@@ -2111,38 +2111,38 @@
         <v>148</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B76" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E76" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C77" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D77" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E77" t="s">
         <v>141</v>
@@ -2150,16 +2150,16 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E78" t="s">
         <v>145</v>
@@ -2167,10 +2167,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C79" t="s">
         <v>134</v>
@@ -2179,270 +2179,270 @@
         <v>147</v>
       </c>
       <c r="E79" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C80" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D80" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E80" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B81" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C81" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D81" t="s">
+        <v>151</v>
+      </c>
+      <c r="E81" t="s">
         <v>146</v>
-      </c>
-      <c r="E81" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C82" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D82" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E82" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B83" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C83" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D83" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E83" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B84" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C84" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D84" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E84" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B85" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C85" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D85" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B86" t="s">
         <v>125</v>
       </c>
       <c r="C86" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D86" t="s">
+        <v>153</v>
+      </c>
+      <c r="E86" t="s">
         <v>142</v>
-      </c>
-      <c r="E86" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B87" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C87" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D87" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E87" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D88" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E88" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B89" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C89" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D89" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E89" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C90" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D90" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E90" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B91" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C91" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D91" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E91" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B92" t="s">
         <v>125</v>
       </c>
       <c r="C92" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D92" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E92" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D93" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E93" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B94" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C94" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D94" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E94" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C95" t="s">
         <v>134</v>
@@ -2451,49 +2451,49 @@
         <v>147</v>
       </c>
       <c r="E95" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B96" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C96" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D96" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E96" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B97" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C97" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D97" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B98" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C98" t="s">
         <v>128</v>
@@ -2502,15 +2502,15 @@
         <v>141</v>
       </c>
       <c r="E98" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B99" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C99" t="s">
         <v>129</v>
@@ -2519,134 +2519,134 @@
         <v>142</v>
       </c>
       <c r="E99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B100" t="s">
         <v>125</v>
       </c>
       <c r="C100" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D100" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B101" t="s">
         <v>125</v>
       </c>
       <c r="C101" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D101" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E101" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B102" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C102" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D102" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E102" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B103" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C103" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D103" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B104" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C104" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D104" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E104" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B105" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C105" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D105" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E105" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B106" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C106" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D106" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E106" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B107" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C107" t="s">
         <v>129</v>
@@ -2655,12 +2655,12 @@
         <v>142</v>
       </c>
       <c r="E107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B108" t="s">
         <v>125</v>
@@ -2672,15 +2672,15 @@
         <v>144</v>
       </c>
       <c r="E108" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B109" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C109" t="s">
         <v>139</v>
@@ -2689,49 +2689,49 @@
         <v>152</v>
       </c>
       <c r="E109" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C110" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D110" t="s">
+        <v>149</v>
+      </c>
+      <c r="E110" t="s">
         <v>150</v>
-      </c>
-      <c r="E110" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B111" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C111" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D111" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E111" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C112" t="s">
         <v>134</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B113" t="s">
         <v>125</v>
@@ -2757,15 +2757,15 @@
         <v>153</v>
       </c>
       <c r="E113" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B114" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C114" t="s">
         <v>138</v>
@@ -2774,157 +2774,157 @@
         <v>151</v>
       </c>
       <c r="E114" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D115" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E115" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B116" t="s">
         <v>126</v>
       </c>
       <c r="C116" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D116" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E116" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B117" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C117" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D117" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E117" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B118" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C118" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D118" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E118" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B119" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D119" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E119" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B120" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D120" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E120" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B121" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D121" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E121" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B122" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C122" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D122" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E122" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D123" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E123" t="s">
         <v>152</v>
@@ -2932,118 +2932,118 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B124" t="s">
         <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D124" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E124" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C125" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D125" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E125" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D126" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E126" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D127" t="s">
+        <v>152</v>
+      </c>
+      <c r="E127" t="s">
         <v>147</v>
-      </c>
-      <c r="E127" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C128" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D128" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E128" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C129" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D129" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E129" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B130" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C130" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D130" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E130" t="s">
         <v>151</v>
@@ -3051,36 +3051,36 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B131" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C131" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D131" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E131" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B132" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C132" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D132" t="s">
+        <v>148</v>
+      </c>
+      <c r="E132" t="s">
         <v>142</v>
-      </c>
-      <c r="E132" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3088,16 +3088,16 @@
         <v>104</v>
       </c>
       <c r="B133" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C133" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D133" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E133" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3108,13 +3108,13 @@
         <v>125</v>
       </c>
       <c r="C134" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D134" t="s">
+        <v>144</v>
+      </c>
+      <c r="E134" t="s">
         <v>149</v>
-      </c>
-      <c r="E134" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3122,16 +3122,16 @@
         <v>106</v>
       </c>
       <c r="B135" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C135" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D135" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E135" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3139,16 +3139,16 @@
         <v>107</v>
       </c>
       <c r="B136" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C136" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D136" t="s">
+        <v>147</v>
+      </c>
+      <c r="E136" t="s">
         <v>153</v>
-      </c>
-      <c r="E136" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3156,16 +3156,16 @@
         <v>107</v>
       </c>
       <c r="B137" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C137" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D137" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E137" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3173,7 +3173,7 @@
         <v>108</v>
       </c>
       <c r="B138" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C138" t="s">
         <v>138</v>
@@ -3182,7 +3182,7 @@
         <v>151</v>
       </c>
       <c r="E138" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3190,13 +3190,13 @@
         <v>109</v>
       </c>
       <c r="B139" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C139" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D139" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E139" t="s">
         <v>142</v>
@@ -3204,24 +3204,24 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B140" t="s">
         <v>127</v>
       </c>
       <c r="C140" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D140" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B141" t="s">
         <v>125</v>
@@ -3238,36 +3238,36 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B142" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C142" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D142" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E142" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B143" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C143" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D143" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E143" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3275,16 +3275,16 @@
         <v>113</v>
       </c>
       <c r="B144" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C144" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D144" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E144" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3292,16 +3292,16 @@
         <v>113</v>
       </c>
       <c r="B145" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C145" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D145" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E145" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3309,16 +3309,16 @@
         <v>114</v>
       </c>
       <c r="B146" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C146" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D146" t="s">
+        <v>141</v>
+      </c>
+      <c r="E146" t="s">
         <v>151</v>
-      </c>
-      <c r="E146" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3326,7 +3326,7 @@
         <v>115</v>
       </c>
       <c r="B147" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C147" t="s">
         <v>130</v>
@@ -3335,7 +3335,7 @@
         <v>143</v>
       </c>
       <c r="E147" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3352,7 +3352,7 @@
         <v>144</v>
       </c>
       <c r="E148" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3369,7 +3369,7 @@
         <v>149</v>
       </c>
       <c r="E149" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3377,30 +3377,30 @@
         <v>118</v>
       </c>
       <c r="B150" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C150" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D150" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E150" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B151" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C151" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D151" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E151" t="s">
         <v>142</v>
@@ -3411,50 +3411,50 @@
         <v>119</v>
       </c>
       <c r="B152" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C152" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D152" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E152" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B153" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C153" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D153" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E153" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B154" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C154" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D154" t="s">
+        <v>151</v>
+      </c>
+      <c r="E154" t="s">
         <v>145</v>
-      </c>
-      <c r="E154" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3462,38 +3462,38 @@
         <v>121</v>
       </c>
       <c r="B155" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C155" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D155" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E155" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B156" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C156" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D156" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E156" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B157" t="s">
         <v>125</v>
@@ -3505,7 +3505,7 @@
         <v>149</v>
       </c>
       <c r="E157" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
